--- a/sql/数据库设计信息表.xlsx
+++ b/sql/数据库设计信息表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="221">
   <si>
     <t>序号</t>
   </si>
@@ -114,64 +114,733 @@
     <t>文化程度</t>
   </si>
   <si>
+    <t>信息登记日期</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>每次信息修改后记录修改日志</t>
+  </si>
+  <si>
+    <t>华侨ID</t>
+  </si>
+  <si>
+    <t>删除标志</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海外华侨信息表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾用名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>“男”，“女”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂定存储照片路劲在数据库。如果照片存进数据库数据类型为blob</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑少数民族名字较长</t>
+  </si>
+  <si>
+    <t>中国护照号8-9位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号18位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号为6-20位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康状况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 留学人员信息表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业院校中文名</t>
+  </si>
+  <si>
+    <t>国家+院校名</t>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>毕业时间</t>
+  </si>
+  <si>
+    <t>留学人员ID</t>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>华侨ID/留学人员ID</t>
+  </si>
+  <si>
+    <t>外键</t>
+  </si>
+  <si>
+    <t>侨眷ID</t>
+  </si>
+  <si>
+    <t>与华侨关系</t>
+  </si>
+  <si>
+    <t>联系电话1</t>
+  </si>
+  <si>
+    <t>3. 侨眷（国内亲属）信息表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>实名</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>4 用户信息表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为三级：管理员/普通用户/查询用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号18位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑少数民族名字较长（若不考虑改为10）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑少数民族名字较长（若不考虑改为10）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键（自增）程序输出时加开头字母标识“L”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键  （自增） 程序输出时加开头字母标识“H”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储照片路劲在数据库。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>py_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>护照有效期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiration</t>
+  </si>
+  <si>
+    <t>date_birth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_expriy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethnicity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_tel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cn_residence </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司/单位名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>信息登记人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>照片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标志</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业院校英文名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>English name of College</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>graduation_Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethnicity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas Chinese（HQ）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hq_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>used_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_tel1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_tel2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>native_place</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationality</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">residence </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> present_industry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t> health</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>overseas Students（LX）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lx_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>used_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>py_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethnicity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport_no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_expriy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_birth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_tel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_tel1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_tel2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>native_place</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationality</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">residence </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cn_residence </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> present_industry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_Cname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch_Cname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>华侨/留学生/侨眷id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键（自增）程序输出时加开头字母标识“QJ”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6用户登录表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 日志表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>old</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip_add</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>operating_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fields</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>operating</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化程度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康状况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息登记人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>信息登记日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>每次信息修改后记录修改日志</t>
-  </si>
-  <si>
-    <t>华侨ID</t>
-  </si>
-  <si>
-    <t>删除标志</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 海外华侨信息表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾用名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>“男”，“女”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -179,642 +848,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>暂定存储照片路劲在数据库。如果照片存进数据库数据类型为blob</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑少数民族名字较长</t>
-  </si>
-  <si>
-    <t>中国护照号8-9位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号18位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信号为6-20位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康状况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 留学人员信息表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业院校中文名</t>
-  </si>
-  <si>
-    <t>国家+院校名</t>
-  </si>
-  <si>
-    <t>学位</t>
-  </si>
-  <si>
-    <t>毕业时间</t>
-  </si>
-  <si>
-    <t>留学人员ID</t>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华侨ID/留学人员ID</t>
-  </si>
-  <si>
-    <t>外键</t>
-  </si>
-  <si>
-    <t>侨眷ID</t>
-  </si>
-  <si>
-    <t>与华侨关系</t>
-  </si>
-  <si>
-    <t>联系电话1</t>
-  </si>
-  <si>
-    <t>3. 侨眷（国内亲属）信息表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>实名</t>
-  </si>
-  <si>
-    <t>权限</t>
-  </si>
-  <si>
-    <t>4 用户信息表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为三级：管理员/普通用户/查询用户</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号18位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑少数民族名字较长（若不考虑改为10）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑少数民族名字较长（若不考虑改为10）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>民族</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>unsigned int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键（自增）程序输出时加开头字母标识“L”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键  （自增） 程序输出时加开头字母标识“H”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储照片路劲在数据库。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>py_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>passport</t>
-  </si>
-  <si>
-    <t>护照有效期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>expiration</t>
-  </si>
-  <si>
-    <t>date_birth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_expriy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>passport_no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ethnicity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_tel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_residence </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司/单位名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>education</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息登记人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>registrant</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除标志</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业院校英文名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>English name of College</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>graduation_Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ethnicity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>relation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>del</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>overseas Chinese（HQ）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hq_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>used_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn_tel1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn_tel2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wechat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>native_place</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationality</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">residence </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> present_industry</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t> health</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>overseas Students（LX）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lx_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>used_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>py_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ethnicity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>passport_no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_expriy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_birth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_tel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn_tel1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn_tel2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wechat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq_num</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>native_place</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationality</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">residence </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cn_residence </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> present_industry</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>registrant</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>photo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>en_Cname</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch_Cname</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>degree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华侨/留学生/侨眷id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键（自增）程序输出时加开头字母标识“QJ”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6用户登录表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 日志表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>old</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>new</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip_add</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>log_date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>operating_user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fields</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>operating</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>del</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>del</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_date</t>
+    <t>identity</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -985,6 +1019,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1283,7 +1323,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1291,7 +1331,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1314,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
@@ -1322,22 +1362,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="9">
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27">
@@ -1351,16 +1391,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9">
         <v>20</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">
@@ -1368,20 +1408,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7">
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1395,14 +1435,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="9">
         <v>50</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1416,14 +1456,14 @@
         <v>7</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="14">
         <v>10</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1431,20 +1471,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="E8" s="9">
         <v>10</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1458,19 +1498,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9">
         <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1478,21 +1518,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1504,12 +1544,12 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1521,16 +1561,16 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="9">
         <v>20</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1541,17 +1581,17 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9">
         <v>20</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1563,14 +1603,14 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="9">
         <v>20</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1582,14 +1622,14 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="9">
         <v>20</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1601,16 +1641,16 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="9">
         <v>20</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1622,14 +1662,14 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="9">
         <v>50</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1641,14 +1681,14 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="9">
         <v>20</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.5">
@@ -1660,7 +1700,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="9">
         <v>50</v>
@@ -1669,7 +1709,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.5">
@@ -1683,7 +1723,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="8">
         <v>50</v>
@@ -1692,7 +1732,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1706,14 +1746,14 @@
         <v>7</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="8">
         <v>50</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.5">
@@ -1725,7 +1765,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="8">
         <v>50</v>
@@ -1734,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5">
@@ -1746,7 +1786,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="8">
         <v>50</v>
@@ -1755,7 +1795,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1763,18 +1803,18 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="8">
         <v>50</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1786,14 +1826,14 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="8">
         <v>50</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1805,14 +1845,14 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="8">
         <v>20</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1">
@@ -1820,18 +1860,18 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="6">
         <v>20</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1839,18 +1879,18 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="8">
         <v>20</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1858,20 +1898,20 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" s="8">
         <v>100</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1879,16 +1919,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.5">
@@ -1896,20 +1936,20 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" s="8">
         <v>100</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1917,23 +1957,23 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="14">
         <v>10</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -1941,7 +1981,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1970,22 +2010,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E38" s="7">
         <v>4</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" ht="27">
@@ -1999,16 +2039,16 @@
         <v>7</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E39" s="13">
         <v>20</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1">
@@ -2016,20 +2056,20 @@
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E40" s="7">
         <v>20</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2043,14 +2083,14 @@
         <v>7</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E41" s="9">
         <v>50</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2064,14 +2104,14 @@
         <v>7</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E42" s="14">
         <v>10</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2079,20 +2119,20 @@
         <v>6</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="E43" s="9">
         <v>10</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2106,19 +2146,19 @@
         <v>7</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E44" s="13">
         <v>10</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2132,12 +2172,12 @@
         <v>7</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2149,12 +2189,12 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2166,16 +2206,16 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E47" s="9">
         <v>20</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2189,14 +2229,14 @@
         <v>7</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E48" s="9">
         <v>20</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2208,14 +2248,14 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E49" s="9">
         <v>20</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2227,14 +2267,14 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E50" s="9">
         <v>20</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2246,16 +2286,16 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E51" s="9">
         <v>20</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2267,14 +2307,14 @@
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E52" s="9">
         <v>50</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2286,14 +2326,14 @@
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E53" s="9">
         <v>20</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.5">
@@ -2305,7 +2345,7 @@
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E54" s="9">
         <v>50</v>
@@ -2314,7 +2354,7 @@
         <v>21</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.5">
@@ -2328,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E55" s="8">
         <v>50</v>
@@ -2337,7 +2377,7 @@
         <v>23</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2351,14 +2391,14 @@
         <v>7</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E56" s="8">
         <v>50</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="28.5">
@@ -2370,7 +2410,7 @@
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" s="8">
         <v>50</v>
@@ -2379,7 +2419,7 @@
         <v>21</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28.5">
@@ -2391,7 +2431,7 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E58" s="8">
         <v>50</v>
@@ -2400,7 +2440,7 @@
         <v>27</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2412,14 +2452,14 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" s="8">
         <v>50</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2427,18 +2467,18 @@
         <v>22</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E60" s="8">
         <v>50</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2446,18 +2486,18 @@
         <v>23</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E61" s="8">
         <v>20</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="2" customFormat="1">
@@ -2465,18 +2505,18 @@
         <v>24</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E62" s="6">
         <v>20</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2484,18 +2524,18 @@
         <v>25</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E63" s="6">
         <v>20</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="40.5">
@@ -2503,20 +2543,20 @@
         <v>26</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E64" s="8">
         <v>100</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2524,16 +2564,16 @@
         <v>27</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="28.5">
@@ -2541,20 +2581,20 @@
         <v>28</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E66" s="8">
         <v>100</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2562,23 +2602,23 @@
         <v>29</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E67" s="8">
         <v>100</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2586,22 +2626,22 @@
         <v>30</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E68" s="8">
         <v>100</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2609,20 +2649,20 @@
         <v>31</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E69" s="8">
         <v>50</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2630,18 +2670,18 @@
         <v>32</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="8"/>
       <c r="G70" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2649,23 +2689,23 @@
         <v>33</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E71" s="14">
         <v>10</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -2700,22 +2740,22 @@
         <v>1</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E76" s="9">
         <v>4</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2723,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>7</v>
@@ -2740,14 +2780,14 @@
         <v>7</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E78" s="9">
         <v>20</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2761,14 +2801,14 @@
         <v>7</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2776,20 +2816,20 @@
         <v>5</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="E80" s="9">
         <v>10</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2801,16 +2841,16 @@
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E81" s="9">
         <v>20</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2818,18 +2858,18 @@
         <v>7</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E82" s="9">
         <v>10</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2837,18 +2877,18 @@
         <v>8</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E83" s="9">
         <v>20</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2856,18 +2896,18 @@
         <v>9</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E84" s="9">
         <v>20</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2875,23 +2915,23 @@
         <v>10</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E85" s="14">
         <v>10</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -2899,7 +2939,7 @@
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
       <c r="G88" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2928,22 +2968,22 @@
         <v>1</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E90" s="14">
         <v>4</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2951,20 +2991,20 @@
         <v>2</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E91" s="9">
         <v>10</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2972,20 +3012,20 @@
         <v>3</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E92" s="9">
         <v>20</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2993,20 +3033,20 @@
         <v>4</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E93" s="9">
         <v>20</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="54.75" customHeight="1">
@@ -3014,22 +3054,22 @@
         <v>5</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E94" s="14">
         <v>10</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1">
@@ -3037,16 +3077,16 @@
         <v>6</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="15"/>
       <c r="G95" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3054,18 +3094,18 @@
         <v>7</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E96" s="8">
         <v>100</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3073,18 +3113,18 @@
         <v>8</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E97" s="14">
         <v>10</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3092,7 +3132,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -3100,7 +3140,7 @@
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
       <c r="G100" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3129,22 +3169,22 @@
         <v>1</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E102" s="9">
         <v>4</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3152,60 +3192,59 @@
         <v>2</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c r="G103" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="28.5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="11">
         <v>3</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>7</v>
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E104" s="14">
-        <v>4</v>
-      </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>195</v>
+      </c>
+      <c r="E104">
+        <v>20</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="28.5">
       <c r="A105" s="11">
         <v>4</v>
       </c>
-      <c r="B105" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="15" t="s">
+      <c r="B105" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E105" s="14">
         <v>4</v>
       </c>
-      <c r="F105" s="15"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3213,37 +3252,39 @@
         <v>5</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C106" s="15"/>
+        <v>172</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="D106" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106" s="12">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="E106" s="14">
+        <v>4</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="11">
         <v>6</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C107" s="11"/>
+      <c r="B107" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="15"/>
       <c r="D107" s="14" t="s">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="E107" s="12">
         <v>10</v>
       </c>
-      <c r="F107" s="14"/>
+      <c r="F107" s="15"/>
       <c r="G107" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3251,18 +3292,18 @@
         <v>7</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C108" s="11"/>
-      <c r="D108" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E108" s="14">
-        <v>100</v>
+      <c r="D108" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E108" s="12">
+        <v>10</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3270,162 +3311,172 @@
         <v>8</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E109" s="14">
         <v>100</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="14" t="s">
-        <v>206</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="11">
+        <v>9</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" s="14">
+        <v>100</v>
+      </c>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C113" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D113" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E113" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F113" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="14"/>
-    </row>
-    <row r="113" spans="1:7" ht="27">
-      <c r="A113" s="11">
+      <c r="G113" s="14"/>
+    </row>
+    <row r="114" spans="1:7" ht="27">
+      <c r="A114" s="11">
         <v>1</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E113" s="14">
+      <c r="B114" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="14">
         <v>4</v>
       </c>
-      <c r="F113" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="11">
-        <v>2</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="F114" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="G114" s="14" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E115" s="14">
-        <v>4</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c r="G115" s="14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="11">
+        <v>3</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E116" s="14">
         <v>4</v>
       </c>
-      <c r="B116" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E116" s="12">
+      <c r="F116" s="14"/>
+      <c r="G116" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="11">
+        <v>4</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="12">
         <v>15</v>
       </c>
-      <c r="F116" s="15"/>
-      <c r="G116" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="11"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="14"/>
+      <c r="G117" s="14" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="14"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
       <c r="G118" s="14"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="11"/>
       <c r="B119" s="12"/>
       <c r="C119" s="11"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="12"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
     </row>
@@ -3438,9 +3489,18 @@
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
     </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="11"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A112:F112"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A74:F74"/>
